--- a/温度电压AD对照表.xlsx
+++ b/温度电压AD对照表.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="7305" windowHeight="4275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
@@ -155,15 +155,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -471,7 +471,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -482,13 +482,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -519,12 +519,12 @@
         <v>0.83250266998931988</v>
       </c>
       <c r="D3" s="3">
-        <f>(C3-0.6)*10</f>
-        <v>2.3250266998931988</v>
+        <f t="shared" ref="D3:D6" si="0">C3*11-0.6*10</f>
+        <v>3.1575293698825178</v>
       </c>
       <c r="E3" s="4">
-        <f>(C3-0.6)*10/3.3*4095</f>
-        <v>2885.1467685038333</v>
+        <f>D3/3.3*4095</f>
+        <v>3918.2068998996697</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -535,16 +535,16 @@
         <v>11.928000000000001</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:C13" si="0">1.5*B4/(B4+10)</f>
+        <f t="shared" ref="C4:C13" si="1">1.5*B4/(B4+10)</f>
         <v>0.81594308646479397</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D13" si="1">(C4-0.6)*10</f>
-        <v>2.1594308646479399</v>
+        <f t="shared" si="0"/>
+        <v>2.9753739511127328</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" ref="E4:E13" si="2">(C4-0.6)*10/3.3*4095</f>
-        <v>2679.6573911313071</v>
+        <f t="shared" ref="E4:E13" si="2">D4/3.3*4095</f>
+        <v>3692.1685847898912</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -555,16 +555,16 @@
         <v>11.409000000000001</v>
       </c>
       <c r="C5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.79936008220841714</v>
+      </c>
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>0.79936008220841714</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="1"/>
-        <v>1.9936008220841717</v>
+        <v>2.7929609042925883</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="2"/>
-        <v>2473.8773837680856</v>
+        <v>3465.8105766903482</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -575,16 +575,16 @@
         <v>10.916</v>
       </c>
       <c r="C6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.7828456683878372</v>
+      </c>
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>0.7828456683878372</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="1"/>
-        <v>1.8284566838783722</v>
+        <v>2.6113023522662093</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="2"/>
-        <v>2268.948521358162</v>
+        <v>3240.3888280394326</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -595,16 +595,16 @@
         <v>10.446999999999999</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.76639604832004693</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="1"/>
-        <v>1.6639604832004695</v>
+        <f>C7*11-0.6*10</f>
+        <v>2.4303565315205162</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="2"/>
-        <v>2064.8236905169465</v>
+        <v>3015.8515141140956</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -615,16 +615,16 @@
         <v>10</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="1"/>
-        <v>1.5000000000000002</v>
+        <f t="shared" ref="D8:D13" si="3">C8*11-0.6*10</f>
+        <v>2.25</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="2"/>
-        <v>1861.3636363636367</v>
+        <v>2792.045454545455</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -635,16 +635,16 @@
         <v>9.5739999999999998</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.73367732706651689</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="1"/>
-        <v>1.3367732706651692</v>
+        <f t="shared" si="3"/>
+        <v>2.0704505977316856</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="2"/>
-        <v>1658.8141040526873</v>
+        <v>2569.2409690034096</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -655,16 +655,16 @@
         <v>9.1679999999999993</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.71744574290484142</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="1"/>
-        <v>1.1744574290484144</v>
+        <f t="shared" si="3"/>
+        <v>1.8919031719532553</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="2"/>
-        <v>1457.3949005918962</v>
+        <v>2347.6798451965396</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -675,16 +675,16 @@
         <v>8.7810000000000006</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.70132048346733411</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="1"/>
-        <v>1.0132048346733413</v>
+        <f t="shared" si="3"/>
+        <v>1.7145253181406748</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="2"/>
-        <v>1257.2950902991918</v>
+        <v>2127.570053874565</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -695,16 +695,16 @@
         <v>8.4130000000000003</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.68535817085754636</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="1"/>
-        <v>0.85358170857546378</v>
+        <f t="shared" si="3"/>
+        <v>1.53893987943301</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="2"/>
-        <v>1059.2173020050075</v>
+        <v>1909.6844867509626</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -715,26 +715,26 @@
         <v>8.0619999999999994</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.66952718414350576</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="1"/>
-        <v>0.69527184143505782</v>
+        <f t="shared" si="3"/>
+        <v>1.3647990255785629</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="2"/>
-        <v>862.76914868986728</v>
+        <v>1693.5915181043079</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -754,73 +754,73 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
+      <c r="A17" s="5">
         <v>20</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>12.081</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="7">
         <f>1.5*B17/(10+B17)</f>
         <v>0.82068294008423526</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="7">
         <f>(C17-0.6)*10</f>
         <v>2.206829400842353</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="6">
         <f>D17/3.3*4095</f>
         <v>2738.4746655907379</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="7">
+      <c r="A18" s="5">
         <v>25</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="5">
         <v>10</v>
       </c>
-      <c r="C18" s="9">
-        <f t="shared" ref="C18:C25" si="3">1.5*B18/(10+B18)</f>
+      <c r="C18" s="7">
+        <f t="shared" ref="C18:C25" si="4">1.5*B18/(10+B18)</f>
         <v>0.75</v>
       </c>
-      <c r="D18" s="9">
-        <f t="shared" ref="D18:D25" si="4">(C18-0.6)*10</f>
-        <v>1.5000000000000002</v>
-      </c>
-      <c r="E18" s="8">
+      <c r="D18" s="7">
+        <f>C18*11-0.6*10</f>
+        <v>2.25</v>
+      </c>
+      <c r="E18" s="6">
         <f t="shared" ref="E18:E25" si="5">D18/3.3*4095</f>
-        <v>1861.3636363636367</v>
+        <v>2792.045454545455</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
+      <c r="A19" s="5">
         <v>30</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="5">
         <v>8.3149999999999995</v>
       </c>
-      <c r="C19" s="9">
-        <f t="shared" si="3"/>
+      <c r="C19" s="7">
+        <f t="shared" si="4"/>
         <v>0.68099918099918111</v>
       </c>
-      <c r="D19" s="9">
-        <f t="shared" si="4"/>
+      <c r="D19" s="7">
+        <f t="shared" ref="D18:D25" si="6">(C19-0.6)*10</f>
         <v>0.80999180999181131</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="6">
         <f t="shared" si="5"/>
         <v>1005.1262005807476</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
@@ -840,61 +840,61 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="7">
+      <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="5">
         <v>12.497999999999999</v>
       </c>
-      <c r="C23" s="9">
-        <f t="shared" si="3"/>
+      <c r="C23" s="7">
+        <f t="shared" si="4"/>
         <v>0.83327406880611621</v>
       </c>
-      <c r="D23" s="9">
-        <f t="shared" si="4"/>
+      <c r="D23" s="7">
+        <f t="shared" si="6"/>
         <v>2.3327406880611621</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="6">
         <f t="shared" si="5"/>
         <v>2894.719126548624</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="7">
+      <c r="A24" s="5">
         <v>25</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="5">
         <v>10</v>
       </c>
-      <c r="C24" s="9">
-        <f t="shared" si="3"/>
+      <c r="C24" s="7">
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
-      <c r="D24" s="9">
-        <f t="shared" si="4"/>
+      <c r="D24" s="7">
+        <f t="shared" si="6"/>
         <v>1.5000000000000002</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="6">
         <f t="shared" si="5"/>
         <v>1861.3636363636367</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="7">
+      <c r="A25" s="5">
         <v>30</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="5">
         <v>8.0540000000000003</v>
       </c>
-      <c r="C25" s="9">
-        <f t="shared" si="3"/>
+      <c r="C25" s="7">
+        <f t="shared" si="4"/>
         <v>0.66915918909936845</v>
       </c>
-      <c r="D25" s="9">
-        <f t="shared" si="4"/>
+      <c r="D25" s="7">
+        <f t="shared" si="6"/>
         <v>0.69159189099368468</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="6">
         <f t="shared" si="5"/>
         <v>858.20266473307231</v>
       </c>
